--- a/biology/Médecine/Sarah_de_Saint-Gilles/Sarah_de_Saint-Gilles.xlsx
+++ b/biology/Médecine/Sarah_de_Saint-Gilles/Sarah_de_Saint-Gilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sara de Sancto Aegidio ou Sarah de Saint-Gilles est une femme médecin française du XIVe siècle[1].
-Sara de Sancto Aegidio vit à Marseille[1]. Elle est la fille de Davin et la veuve d'un médecin nommé Abraham de Saint-Gilles[1],[2],[3]. Sa pratique et son savoir médical sont connus par un contrat avec son étudiant, Salvetus de Burgonoro de Salon de Provence, daté du 28 août 1326[1]. Le contrat stipule que Sara de Sancto Aegidio doit l'instruire en médecine pour sept mois ainsi que lui fournir à se loger et se vêtir[1]. En retour, l'étudiant de Sara de Sancto Aegidio doit lui donner toutes les recettes qu'il obtient en tant qu'apprenti[1]. Ce document est l'un des exemples les plus anciens et les mieux étudiés de contrat entre maître et apprenti[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara de Sancto Aegidio ou Sarah de Saint-Gilles est une femme médecin française du XIVe siècle.
+Sara de Sancto Aegidio vit à Marseille. Elle est la fille de Davin et la veuve d'un médecin nommé Abraham de Saint-Gilles. Sa pratique et son savoir médical sont connus par un contrat avec son étudiant, Salvetus de Burgonoro de Salon de Provence, daté du 28 août 1326. Le contrat stipule que Sara de Sancto Aegidio doit l'instruire en médecine pour sept mois ainsi que lui fournir à se loger et se vêtir. En retour, l'étudiant de Sara de Sancto Aegidio doit lui donner toutes les recettes qu'il obtient en tant qu'apprenti. Ce document est l'un des exemples les plus anciens et les mieux étudiés de contrat entre maître et apprenti,.
 </t>
         </is>
       </c>
